--- a/medicine/Mort/Terrorisme_en_1999/Terrorisme_en_1999.xlsx
+++ b/medicine/Mort/Terrorisme_en_1999/Terrorisme_en_1999.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Chronologie du terrorisme
@@ -525,26 +537,125 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Janvier
-Février
-Mars
-19 mars 1999, Russie : une bombe explose à Vladikavkaz, faisant soixante-deux morts et de nombreux blessés[1].
-Avril
-17, 24 et 30 avril 1999, Royaume-Uni : à Londres, le néo-nazi David Copeland fait exploser trois bombes visant les immigrés à Brixton, Brick Lane et la communauté gay à Soho. Bilan : trois morts et cent cinquante-deux blessés[2].
-20 avril, États-Unis : à Littleton, dans le Colorado, deux étudiants du lycée Columbine ouvrent le feu sur des élèves du lycée, faisant treize morts et vingt-trois blessés[source insuffisante][3]. (voir l'article Fusillade de Columbine pour plus de détails)
-Mai
-Juin
-Juillet
-Août
-Septembre
-4 septembre 1999, Russie : une voiture piégée explose près d'un immeuble logeant des militaires russes et leurs familles à Bouïnaksk, faisant soixante-quatre morts et cent trente-trois blessés[4].
-9 septembre 1999, Russie : un attentat contre un immeuble d'habitation à Moscou tue quatre-vingt-douze personnes et en blesse deux cent soixante-quatre autres[4].
-13 septembre 1999, Russie : un attentat similaire contre un autre immeuble d'habitation à Moscou fait cent vingt-quatre morts. Ces deux attentats sont attribués aux indépendantistes tchétchènes[4].
-16 septembre 1999, Russie : un camion piégé explose à Volgodonsk au sud du pays, tuant dix-sept personnes et en blessant soixante-neuf autres[4].
-Octobre
-Novembre
-Décembre
-29 décembre 1999, Liban : un attentat du Hezbollah au Sud-Liban fait un mort[5].</t>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>19 mars 1999, Russie : une bombe explose à Vladikavkaz, faisant soixante-deux morts et de nombreux blessés.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1999</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1999</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>17, 24 et 30 avril 1999, Royaume-Uni : à Londres, le néo-nazi David Copeland fait exploser trois bombes visant les immigrés à Brixton, Brick Lane et la communauté gay à Soho. Bilan : trois morts et cent cinquante-deux blessés.
+20 avril, États-Unis : à Littleton, dans le Colorado, deux étudiants du lycée Columbine ouvrent le feu sur des élèves du lycée, faisant treize morts et vingt-trois blessés[source insuffisante]. (voir l'article Fusillade de Columbine pour plus de détails)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1999</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1999</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>4 septembre 1999, Russie : une voiture piégée explose près d'un immeuble logeant des militaires russes et leurs familles à Bouïnaksk, faisant soixante-quatre morts et cent trente-trois blessés.
+9 septembre 1999, Russie : un attentat contre un immeuble d'habitation à Moscou tue quatre-vingt-douze personnes et en blesse deux cent soixante-quatre autres.
+13 septembre 1999, Russie : un attentat similaire contre un autre immeuble d'habitation à Moscou fait cent vingt-quatre morts. Ces deux attentats sont attribués aux indépendantistes tchétchènes.
+16 septembre 1999, Russie : un camion piégé explose à Volgodonsk au sud du pays, tuant dix-sept personnes et en blessant soixante-neuf autres.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1999</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1999</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>29 décembre 1999, Liban : un attentat du Hezbollah au Sud-Liban fait un mort.</t>
         </is>
       </c>
     </row>
